--- a/biology/Zoologie/Aricoris/Aricoris.xlsx
+++ b/biology/Zoologie/Aricoris/Aricoris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aricoris est un genre d'insectes lépidoptères de la famille des Riodinidae et de la sous-famille des Riodininae. 
 Ils résident en Amérique du Sud.
@@ -512,7 +524,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été nommé par John Obadiah Westwood en 1851.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Aricoris aurinia (Hewitson, [1863]); présent au Uruguay et au Brésil
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aricoris aurinia (Hewitson, ); présent au Uruguay et au Brésil
 Aricoris campestris (Bates, 1868); présent au Brésil.
 Aricoris caracensis (Callaghan, 2001); présent au Brésil.
 Aricoris chilensis (C. &amp; R. Felder, 1865); présent en Bolivie, en Uruguay, au Chili et en Argentine
@@ -553,7 +569,7 @@
 Aricoris colchis (C. &amp; R. Felder, 1865); présent au Brésil.
 Aricoris constantius (Fabricius, 1793); présent au Brésil.
 Aricoris domina (Bates, 1865); présent à Panama et au Costa Rica.
-Aricoris epulus (Cramer, [1775]); présent au Surinam, en Argentine et au Brésil
+Aricoris epulus (Cramer, ); présent au Surinam, en Argentine et au Brésil
 Aricoris erostratus (Westwood, 1851); présent à Panama, en Colombie et au Venezuela.
 Aricoris gauchoana (Stichel, 1910); présent au Uruguay
 Aricoris hubrichi (Stichel, 1926); présent au Uruguay et en Argentine
